--- a/data/outputs/management_elsevier/60.xlsx
+++ b/data/outputs/management_elsevier/60.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS61"/>
+  <dimension ref="A1:BU61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84940649251</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>536</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84942250714</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>805</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1353,6 +1375,12 @@
           <t>2-s2.0-84943408706</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3251</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84943380506</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1007</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1787,6 +1821,12 @@
           <t>2-s2.0-84943392261</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1975</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1994,6 +2034,12 @@
           <t>2-s2.0-84943388028</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1365</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2211,6 +2257,12 @@
           <t>2-s2.0-84944054332</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>865</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2416,6 +2468,12 @@
           <t>2-s2.0-84945952821</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>801</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2634,6 +2692,12 @@
         <is>
           <t>2-s2.0-84946717868</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2824,6 +2888,12 @@
           <t>2-s2.0-84948463297</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3057,6 +3127,12 @@
           <t>2-s2.0-84948586805</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>770</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3290,6 +3366,12 @@
           <t>2-s2.0-84948582323</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1442</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3527,6 +3609,12 @@
           <t>2-s2.0-84948578156</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>3162</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3760,6 +3848,12 @@
           <t>2-s2.0-84948573892</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1267</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3985,6 +4079,12 @@
           <t>2-s2.0-84948581866</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>857</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4218,6 +4318,12 @@
           <t>2-s2.0-84948566648</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>717</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4431,6 +4537,12 @@
           <t>2-s2.0-84944077705</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>988</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4666,6 +4778,12 @@
           <t>2-s2.0-84948578575</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>17516</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4889,6 +5007,12 @@
           <t>2-s2.0-84937031193</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3847</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5098,6 +5222,12 @@
           <t>2-s2.0-84940210754</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>897</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5311,6 +5441,12 @@
           <t>2-s2.0-84938373533</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2602</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5516,6 +5652,12 @@
           <t>2-s2.0-84938822985</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>916</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5737,6 +5879,12 @@
           <t>2-s2.0-84938833463</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1199</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5944,6 +6092,12 @@
           <t>2-s2.0-84938118991</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>743</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6161,6 +6315,12 @@
           <t>2-s2.0-84940376288</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>743</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6384,6 +6544,12 @@
           <t>2-s2.0-84940397364</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1179</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6595,6 +6761,12 @@
           <t>2-s2.0-84940381788</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>753</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6800,6 +6972,12 @@
           <t>2-s2.0-84937214504</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1296</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7017,6 +7195,12 @@
           <t>2-s2.0-84939239769</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7226,6 +7410,12 @@
           <t>2-s2.0-84929094580</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1552</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7439,6 +7629,12 @@
           <t>2-s2.0-84930634665</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1113</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7644,6 +7840,12 @@
           <t>2-s2.0-84930641369</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7849,6 +8051,12 @@
           <t>2-s2.0-84934953625</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>930</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8062,6 +8270,12 @@
           <t>2-s2.0-84934960976</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1655</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8275,6 +8489,12 @@
           <t>2-s2.0-84934901358</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8484,6 +8704,12 @@
           <t>2-s2.0-84937208846</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>520</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8701,6 +8927,12 @@
           <t>2-s2.0-84937046955</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>733</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8922,6 +9154,12 @@
           <t>2-s2.0-84929994127</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1025</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9135,6 +9373,12 @@
           <t>2-s2.0-84926004058</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9348,6 +9592,12 @@
           <t>2-s2.0-84926019869</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1058</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9553,6 +9803,12 @@
           <t>2-s2.0-84927759256</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1185</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9762,6 +10018,12 @@
           <t>2-s2.0-84928392840</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9975,6 +10237,12 @@
           <t>2-s2.0-84928473592</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1341</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10196,6 +10464,12 @@
           <t>2-s2.0-84928491914</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10401,6 +10675,12 @@
           <t>2-s2.0-84929458958</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1651</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10618,6 +10898,12 @@
           <t>2-s2.0-84925011104</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10831,6 +11117,12 @@
           <t>2-s2.0-84925628470</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11052,6 +11344,12 @@
           <t>2-s2.0-84929121143</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2483</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11273,6 +11571,12 @@
           <t>2-s2.0-84922525975</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>626</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11486,6 +11790,12 @@
           <t>2-s2.0-84922513129</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1563</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11691,6 +12001,12 @@
           <t>2-s2.0-84922566103</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>655</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11896,6 +12212,12 @@
           <t>2-s2.0-84923322538</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1480</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12113,6 +12435,12 @@
           <t>2-s2.0-84924257953</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>3316</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12328,6 +12656,12 @@
           <t>2-s2.0-84924980605</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1383</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12543,6 +12877,12 @@
           <t>2-s2.0-84925046989</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>753</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12752,6 +13092,12 @@
           <t>2-s2.0-84925448518</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>510</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12957,6 +13303,12 @@
           <t>2-s2.0-84916887249</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1820</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13154,6 +13506,12 @@
           <t>2-s2.0-84921033970</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1195</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13367,6 +13725,12 @@
           <t>2-s2.0-84921411929</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1875</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13572,6 +13936,12 @@
           <t>2-s2.0-84921463507</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>778</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
